--- a/Team-Data/2011-12/4-1-2011-12.xlsx
+++ b/Team-Data/2011-12/4-1-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -753,19 +820,19 @@
         <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -786,25 +853,25 @@
         <v>24</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -819,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
         <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.577</v>
+        <v>0.569</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L3" t="n">
         <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O3" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P3" t="n">
         <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R3" t="n">
         <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="T3" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="U3" t="n">
         <v>23.6</v>
@@ -911,34 +978,34 @@
         <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
         <v>20.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB3" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -950,22 +1017,22 @@
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
         <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -980,16 +1047,16 @@
         <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1001,7 +1068,7 @@
         <v>27</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-12.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1147,10 +1214,10 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1168,16 +1235,16 @@
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
         <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -1212,85 +1279,85 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
         <v>42</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.778</v>
+        <v>0.792</v>
       </c>
       <c r="H5" t="n">
         <v>48.1</v>
       </c>
       <c r="I5" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R5" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="U5" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V5" t="n">
         <v>13.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1305,16 +1372,16 @@
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
@@ -1323,13 +1390,13 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>25</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
         <v>24</v>
@@ -1353,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>1</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>-5.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
         <v>23</v>
@@ -1484,7 +1551,7 @@
         <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>28</v>
@@ -1508,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1666,13 +1733,13 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>14</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
@@ -1687,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>25</v>
@@ -1714,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
         <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.547</v>
+        <v>0.538</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
@@ -1776,10 +1843,10 @@
         <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
         <v>6.5</v>
@@ -1788,37 +1855,37 @@
         <v>20.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.323</v>
+        <v>0.321</v>
       </c>
       <c r="O8" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P8" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q8" t="n">
         <v>0.738</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S8" t="n">
         <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>15.9</v>
       </c>
       <c r="W8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
         <v>6.4</v>
@@ -1827,19 +1894,19 @@
         <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB8" t="n">
         <v>103.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>14</v>
@@ -1860,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
         <v>10</v>
@@ -1878,7 +1945,7 @@
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
@@ -1893,7 +1960,7 @@
         <v>28</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>13</v>
@@ -1902,16 +1969,16 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="n">
         <v>2</v>
       </c>
-      <c r="BB8" t="n">
-        <v>1</v>
-      </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2054,7 +2121,7 @@
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>0.392</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J10" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L10" t="n">
         <v>8.1</v>
@@ -2152,31 +2219,31 @@
         <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
       <c r="O10" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P10" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R10" t="n">
         <v>9.6</v>
       </c>
       <c r="S10" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T10" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U10" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
@@ -2185,7 +2252,7 @@
         <v>5.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z10" t="n">
         <v>21.7</v>
@@ -2194,10 +2261,10 @@
         <v>17.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
         <v>25</v>
@@ -2212,19 +2279,19 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM10" t="n">
         <v>8</v>
@@ -2233,19 +2300,19 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
         <v>28</v>
@@ -2254,7 +2321,7 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
         <v>12</v>
@@ -2263,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="AY10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -2304,61 +2371,61 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
         <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.528</v>
+        <v>0.538</v>
       </c>
       <c r="H11" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I11" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J11" t="n">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="K11" t="n">
         <v>0.453</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M11" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O11" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="P11" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S11" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T11" t="n">
         <v>42.2</v>
       </c>
       <c r="U11" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2367,13 +2434,13 @@
         <v>4.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z11" t="n">
         <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB11" t="n">
         <v>98.09999999999999</v>
@@ -2382,25 +2449,25 @@
         <v>0.6</v>
       </c>
       <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH11" t="n">
         <v>5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>3</v>
-      </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>11</v>
@@ -2415,13 +2482,13 @@
         <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>15</v>
@@ -2433,22 +2500,22 @@
         <v>16</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW11" t="n">
         <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>20</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>22</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -2486,19 +2553,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
         <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.596</v>
+        <v>0.588</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
         <v>35.2</v>
@@ -2510,73 +2577,73 @@
         <v>0.437</v>
       </c>
       <c r="L12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M12" t="n">
         <v>15.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O12" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P12" t="n">
         <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R12" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="V12" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
         <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC12" t="n">
         <v>2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF12" t="n">
         <v>7</v>
       </c>
-      <c r="AF12" t="n">
-        <v>6</v>
-      </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
@@ -2585,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2603,13 +2670,13 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
         <v>9</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
         <v>7</v>
@@ -2791,7 +2858,7 @@
         <v>10</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT13" t="n">
         <v>20</v>
@@ -2803,10 +2870,10 @@
         <v>3</v>
       </c>
       <c r="AW13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY13" t="n">
         <v>6</v>
@@ -2818,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.623</v>
+        <v>0.615</v>
       </c>
       <c r="H14" t="n">
         <v>48.6</v>
       </c>
       <c r="I14" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J14" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M14" t="n">
         <v>17.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.317</v>
+        <v>0.313</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P14" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R14" t="n">
         <v>11.7</v>
@@ -2898,13 +2965,13 @@
         <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="U14" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V14" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
@@ -2919,16 +2986,16 @@
         <v>17.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>96.3</v>
+        <v>95.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2943,22 +3010,22 @@
         <v>6</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AM14" t="n">
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2967,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
         <v>19</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>9</v>
@@ -3131,7 +3198,7 @@
         <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3140,7 +3207,7 @@
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3152,7 +3219,7 @@
         <v>18</v>
       </c>
       <c r="AR15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.725</v>
+        <v>0.74</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.479</v>
+        <v>0.482</v>
       </c>
       <c r="L16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M16" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
       <c r="O16" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P16" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.779</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S16" t="n">
         <v>31.6</v>
       </c>
       <c r="T16" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X16" t="n">
         <v>5.4</v>
@@ -3280,16 +3347,16 @@
         <v>4.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.7</v>
+        <v>101.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AD16" t="n">
         <v>25</v>
@@ -3304,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI16" t="n">
         <v>4</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3319,7 +3386,7 @@
         <v>20</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN16" t="n">
         <v>5</v>
@@ -3331,19 +3398,19 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
         <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3352,16 +3419,16 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -3474,22 +3541,22 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3513,31 +3580,31 @@
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
         <v>27</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
         <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>0.463</v>
+        <v>0.472</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3602,37 +3669,37 @@
         <v>0.435</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
         <v>21.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="P18" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T18" t="n">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="U18" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W18" t="n">
         <v>7</v>
@@ -3647,34 +3714,34 @@
         <v>18.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF18" t="n">
         <v>19</v>
       </c>
-      <c r="AF18" t="n">
-        <v>21</v>
-      </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
         <v>25</v>
@@ -3692,13 +3759,13 @@
         <v>4</v>
       </c>
       <c r="AP18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR18" t="n">
         <v>5</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>8</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3917,7 @@
         <v>24</v>
       </c>
       <c r="AH19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3862,7 +3929,7 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
@@ -3880,7 +3947,7 @@
         <v>11</v>
       </c>
       <c r="AR19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J20" t="n">
         <v>78.40000000000001</v>
@@ -3969,22 +4036,22 @@
         <v>3.9</v>
       </c>
       <c r="M20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O20" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P20" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="Q20" t="n">
         <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S20" t="n">
         <v>29.9</v>
@@ -3996,31 +4063,31 @@
         <v>20.8</v>
       </c>
       <c r="V20" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>88.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.8</v>
+        <v>-4.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4059,13 +4126,13 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4074,16 +4141,16 @@
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
@@ -4214,7 +4281,7 @@
         <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>10</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4244,7 +4311,7 @@
         <v>21</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>13</v>
@@ -4271,7 +4338,7 @@
         <v>24</v>
       </c>
       <c r="BA21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB21" t="n">
         <v>13</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.769</v>
+        <v>0.765</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,7 +4391,7 @@
         <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.478</v>
@@ -4333,34 +4400,34 @@
         <v>7.2</v>
       </c>
       <c r="M22" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O22" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P22" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U22" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
         <v>7.6</v>
@@ -4372,25 +4439,25 @@
         <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD22" t="n">
         <v>20</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
         <v>2</v>
@@ -4399,10 +4466,10 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
         <v>2</v>
@@ -4411,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="AM22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN22" t="n">
         <v>10</v>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
@@ -4447,16 +4514,16 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -4488,97 +4555,97 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n">
         <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.604</v>
+        <v>0.615</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J23" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L23" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="O23" t="n">
         <v>15.3</v>
       </c>
       <c r="P23" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.645</v>
+        <v>0.643</v>
       </c>
       <c r="R23" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
         <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W23" t="n">
         <v>6.7</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>4.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA23" t="n">
         <v>20.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE23" t="n">
         <v>5</v>
       </c>
-      <c r="AE23" t="n">
-        <v>6</v>
-      </c>
       <c r="AF23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
         <v>9</v>
@@ -4641,7 +4708,7 @@
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>5.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
@@ -4763,7 +4830,7 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ24" t="n">
         <v>4</v>
@@ -4796,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4808,7 +4875,7 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -4852,52 +4919,52 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="n">
         <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J25" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L25" t="n">
         <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O25" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P25" t="n">
         <v>21</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R25" t="n">
         <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T25" t="n">
         <v>41.5</v>
@@ -4906,13 +4973,13 @@
         <v>22.6</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W25" t="n">
         <v>6.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
@@ -4927,10 +4994,10 @@
         <v>96.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>18</v>
@@ -4948,52 +5015,52 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT25" t="n">
         <v>21</v>
       </c>
       <c r="AU25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -5034,34 +5101,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" t="n">
         <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.472</v>
+        <v>0.462</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L26" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M26" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N26" t="n">
         <v>0.341</v>
@@ -5073,25 +5140,25 @@
         <v>21.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
         <v>29.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W26" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X26" t="n">
         <v>5.1</v>
@@ -5103,28 +5170,28 @@
         <v>19.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="n">
         <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5133,7 +5200,7 @@
         <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>11</v>
@@ -5142,22 +5209,22 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5166,10 +5233,10 @@
         <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX26" t="n">
         <v>15</v>
@@ -5184,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,10 +5373,10 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5318,13 +5385,13 @@
         <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
@@ -5342,7 +5409,7 @@
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5363,7 +5430,7 @@
         <v>14</v>
       </c>
       <c r="BA27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB27" t="n">
         <v>8</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>4.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG28" t="n">
         <v>4</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5509,13 +5576,13 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR28" t="n">
         <v>24</v>
@@ -5527,13 +5594,13 @@
         <v>13</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" t="n">
         <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.34</v>
+        <v>0.327</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J29" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L29" t="n">
         <v>5.5</v>
@@ -5610,16 +5677,16 @@
         <v>16.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
       <c r="O29" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P29" t="n">
         <v>21.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R29" t="n">
         <v>10.5</v>
@@ -5628,13 +5695,13 @@
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U29" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V29" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W29" t="n">
         <v>6.8</v>
@@ -5646,22 +5713,22 @@
         <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
@@ -5670,7 +5737,7 @@
         <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5682,7 +5749,7 @@
         <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
@@ -5697,13 +5764,13 @@
         <v>16</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
@@ -5712,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5885,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
         <v>4</v>
@@ -5897,19 +5964,19 @@
         <v>10</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" t="n">
-        <v>0.231</v>
+        <v>0.235</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,19 +6029,19 @@
         <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M31" t="n">
         <v>16.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.319</v>
+        <v>0.317</v>
       </c>
       <c r="O31" t="n">
         <v>15.5</v>
@@ -5983,25 +6050,25 @@
         <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T31" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U31" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="V31" t="n">
         <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X31" t="n">
         <v>6.6</v>
@@ -6013,7 +6080,7 @@
         <v>21.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB31" t="n">
         <v>93.09999999999999</v>
@@ -6022,7 +6089,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,10 +6104,10 @@
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6055,7 +6122,7 @@
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6067,10 +6134,10 @@
         <v>12</v>
       </c>
       <c r="AS31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6085,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-1-2011-12</t>
+          <t>2012-04-01</t>
         </is>
       </c>
     </row>
